--- a/BOM/touchBOM-RevA.xlsx
+++ b/BOM/touchBOM-RevA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>TESA - Industrial Design Project - Summer 2014</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>for 25: 0.129/0.106/0.079</t>
+  </si>
+  <si>
+    <t>941-CLA1BWKWXD0F0DY3</t>
+  </si>
+  <si>
+    <t>Cree</t>
+  </si>
+  <si>
+    <t>CLA1B-WKW-XD0F0DY3</t>
+  </si>
+  <si>
+    <t>0.282/0.247/0.223</t>
   </si>
 </sst>
 </file>
@@ -188,11 +200,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,6 +672,21 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -680,7 +707,7 @@
       <c r="H13" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J13" t="s">
@@ -688,19 +715,19 @@
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I32" s="1"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="1"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="1"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="1"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="1"/>
+      <c r="I36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BOM/touchBOM-RevA.xlsx
+++ b/BOM/touchBOM-RevA.xlsx
@@ -21,12 +21,6 @@
     <t>TESA - Industrial Design Project - Summer 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">Board: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision: </t>
-  </si>
-  <si>
     <t>Bill of Materials</t>
   </si>
   <si>
@@ -157,6 +151,12 @@
   </si>
   <si>
     <t>0.282/0.247/0.223</t>
+  </si>
+  <si>
+    <t>Board: touch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision: A </t>
   </si>
 </sst>
 </file>
@@ -509,13 +509,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
@@ -533,49 +533,49 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -583,28 +583,28 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -612,28 +612,28 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -641,28 +641,28 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -670,48 +670,48 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
         <v>43</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>40</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.25">
